--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/55.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/55.xlsx
@@ -479,13 +479,13 @@
         <v>-9.602850342331328</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.38553344776937</v>
+        <v>-16.58558925519788</v>
       </c>
       <c r="F2" t="n">
-        <v>2.624374750394206</v>
+        <v>3.168511436668106</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.4583901556024</v>
+        <v>-10.4382595788901</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.424407765267254</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.85813907457344</v>
+        <v>-17.12625474659627</v>
       </c>
       <c r="F3" t="n">
-        <v>2.547157775938152</v>
+        <v>3.089627310870434</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.420466129335741</v>
+        <v>-10.33310681919649</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.190381285178804</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.32684816290457</v>
+        <v>-17.65500572825999</v>
       </c>
       <c r="F4" t="n">
-        <v>2.680412547102786</v>
+        <v>3.159921451602937</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.467317482141386</v>
+        <v>-10.34122257059557</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.91312849872245</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.79037490395678</v>
+        <v>-18.06952506447824</v>
       </c>
       <c r="F5" t="n">
-        <v>3.082337801631863</v>
+        <v>3.522275084551205</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.212800673656661</v>
+        <v>-10.01899790601094</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.600653401775354</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.34985818278593</v>
+        <v>-18.75287622128754</v>
       </c>
       <c r="F6" t="n">
-        <v>3.209906657810275</v>
+        <v>3.610883445007171</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.954543774918747</v>
+        <v>-9.681196865548316</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.263516277819425</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.00169969033796</v>
+        <v>-19.36080466916095</v>
       </c>
       <c r="F7" t="n">
-        <v>3.319043958100417</v>
+        <v>3.630498140557235</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.674217899183576</v>
+        <v>-9.402161687626011</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.907349229914344</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.55939848166068</v>
+        <v>-19.91635718646909</v>
       </c>
       <c r="F8" t="n">
-        <v>3.535460736071275</v>
+        <v>3.877583658604249</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.514283817546188</v>
+        <v>-9.191773055122061</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.539328348460238</v>
       </c>
       <c r="E9" t="n">
-        <v>-20.99801084371909</v>
+        <v>-20.39805147703876</v>
       </c>
       <c r="F9" t="n">
-        <v>3.840212090113551</v>
+        <v>4.168376898041483</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.789339343878824</v>
+        <v>-9.346959911091675</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.16603184996222</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.63643691642831</v>
+        <v>-21.02783867461414</v>
       </c>
       <c r="F10" t="n">
-        <v>4.179367385478308</v>
+        <v>4.495094559936808</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.392092868921383</v>
+        <v>-8.879492630504735</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.792848949098785</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.56125123338768</v>
+        <v>-21.99093880434831</v>
       </c>
       <c r="F11" t="n">
-        <v>4.316548029157074</v>
+        <v>4.619373114493786</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.148478545749878</v>
+        <v>-8.633898259552129</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.424097029246102</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.41289178456993</v>
+        <v>-22.79841695650172</v>
       </c>
       <c r="F12" t="n">
-        <v>4.746379734882503</v>
+        <v>4.985686843004256</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.689449691015233</v>
+        <v>-8.148742552120691</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.061008222873234</v>
       </c>
       <c r="E13" t="n">
-        <v>-23.98982392890709</v>
+        <v>-23.4156149613948</v>
       </c>
       <c r="F13" t="n">
-        <v>5.555221919951779</v>
+        <v>5.785313250129397</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.397326641710198</v>
+        <v>-7.825373859929203</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.711342957371642</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.16915994335805</v>
+        <v>-24.59680879845518</v>
       </c>
       <c r="F14" t="n">
-        <v>5.821858576459586</v>
+        <v>6.090533948830897</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.647548548600122</v>
+        <v>-6.995924510915881</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.378284015260393</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.61792677267904</v>
+        <v>-25.14269574918744</v>
       </c>
       <c r="F15" t="n">
-        <v>6.20787989165059</v>
+        <v>6.519397631196677</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.214054976731374</v>
+        <v>-6.474746600889013</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.063380625051435</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.58884931340028</v>
+        <v>-26.05135189845165</v>
       </c>
       <c r="F16" t="n">
-        <v>6.477185945907733</v>
+        <v>6.733105899363263</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.957558120465548</v>
+        <v>-6.279997901352323</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.769435725427856</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.63011977392956</v>
+        <v>-27.11670316230392</v>
       </c>
       <c r="F17" t="n">
-        <v>6.873087943976771</v>
+        <v>7.150939982237282</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.630561785178809</v>
+        <v>-5.910384093206686</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.49933483173466</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.19010173145913</v>
+        <v>-27.75554724510026</v>
       </c>
       <c r="F18" t="n">
-        <v>7.222881718283936</v>
+        <v>7.47351665531633</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.478557672679557</v>
+        <v>-5.821653507579047</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.256146000889774</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.20148324850753</v>
+        <v>-28.78274714386656</v>
       </c>
       <c r="F19" t="n">
-        <v>7.41025290645845</v>
+        <v>7.741708016007816</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.206728890879085</v>
+        <v>-5.53973870461213</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.043256584935482</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.80141572565009</v>
+        <v>-29.45983548287935</v>
       </c>
       <c r="F20" t="n">
-        <v>7.647594633819704</v>
+        <v>8.061546845241393</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.091054988407878</v>
+        <v>-5.424827487212161</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.864551606435821</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.53159379023071</v>
+        <v>-30.16911059860047</v>
       </c>
       <c r="F21" t="n">
-        <v>7.92089011768025</v>
+        <v>8.33055955908652</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.01088016479734</v>
+        <v>-5.389543524653636</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.728001541759013</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.77512500028547</v>
+        <v>-30.45452837498753</v>
       </c>
       <c r="F22" t="n">
-        <v>7.873168521652293</v>
+        <v>8.350071585492378</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.122975314241965</v>
+        <v>-5.461842158201574</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.638634222381856</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.20011414470923</v>
+        <v>-30.84379110173129</v>
       </c>
       <c r="F23" t="n">
-        <v>7.992093613689999</v>
+        <v>8.461922284593658</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.807223694749131</v>
+        <v>-5.29242340324237</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.598823293277492</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.28591132621671</v>
+        <v>-30.94695403563007</v>
       </c>
       <c r="F24" t="n">
-        <v>8.29872234636917</v>
+        <v>8.876231393516631</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.950696490265616</v>
+        <v>-5.348148303511467</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.613528025407188</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.41289594607453</v>
+        <v>-31.00818884663818</v>
       </c>
       <c r="F25" t="n">
-        <v>8.232182962910457</v>
+        <v>8.773816477668497</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.847210881913628</v>
+        <v>-5.270114864908638</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.685164012902979</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.32319733708724</v>
+        <v>-30.94919320077511</v>
       </c>
       <c r="F26" t="n">
-        <v>7.865659007104711</v>
+        <v>8.38607423206034</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.860034746925546</v>
+        <v>-5.270373982272584</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.813978727838449</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.51229678918921</v>
+        <v>-31.11604767163262</v>
       </c>
       <c r="F27" t="n">
-        <v>7.906286654168774</v>
+        <v>8.471123395517193</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.506936003976348</v>
+        <v>-4.952084968215821</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.997055226734469</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.1831688469085</v>
+        <v>-30.82046320546581</v>
       </c>
       <c r="F28" t="n">
-        <v>7.851353773012118</v>
+        <v>8.371837444063884</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.716234387948976</v>
+        <v>-5.194843715185615</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.230260434938008</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.01299474038835</v>
+        <v>-30.7152517776898</v>
       </c>
       <c r="F29" t="n">
-        <v>7.490109944622639</v>
+        <v>8.000600485638431</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.426409171871391</v>
+        <v>-4.900173493302917</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.507522700876492</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.17250103392489</v>
+        <v>-30.89228516084422</v>
       </c>
       <c r="F30" t="n">
-        <v>7.240472364991096</v>
+        <v>7.765625037600764</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.58502811066158</v>
+        <v>-5.051947822479425</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.819287273127434</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.79851645364023</v>
+        <v>-30.54296562020315</v>
       </c>
       <c r="F31" t="n">
-        <v>7.164966542938461</v>
+        <v>7.66057983605823</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.5388318847761</v>
+        <v>-5.010806829694336</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.152415400167954</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.8025327727814</v>
+        <v>-30.61032146780864</v>
       </c>
       <c r="F32" t="n">
-        <v>6.957535759588994</v>
+        <v>7.452801933221211</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.639828988632829</v>
+        <v>-5.159153965057136</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.498034219968132</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.3240652267439</v>
+        <v>-30.19422787137924</v>
       </c>
       <c r="F33" t="n">
-        <v>6.943792761286096</v>
+        <v>7.407901294155464</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.339731969127856</v>
+        <v>-4.870722115936622</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.844968604053461</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.99458283146534</v>
+        <v>-29.93956439268851</v>
       </c>
       <c r="F34" t="n">
-        <v>6.89301064695945</v>
+        <v>7.36607095140214</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.310515264091173</v>
+        <v>-4.851884772478399</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.182307759845006</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.5364535539942</v>
+        <v>-29.55896498611291</v>
       </c>
       <c r="F35" t="n">
-        <v>6.949297783018242</v>
+        <v>7.419067785839498</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.408622964889554</v>
+        <v>-4.933340515888069</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.498898420906192</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.22359378206315</v>
+        <v>-29.27097559211386</v>
       </c>
       <c r="F36" t="n">
-        <v>6.914732504469153</v>
+        <v>7.418285544740792</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.506437325275922</v>
+        <v>-4.896452959077195</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.785979798488543</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.08363373798054</v>
+        <v>-29.11313889442237</v>
       </c>
       <c r="F37" t="n">
-        <v>7.04397340099605</v>
+        <v>7.421135835744203</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.373162998083821</v>
+        <v>-4.789070812252275</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.036028027979529</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.40828588541238</v>
+        <v>-28.5248666986574</v>
       </c>
       <c r="F38" t="n">
-        <v>6.72254075552386</v>
+        <v>7.146290536706846</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.340841773686646</v>
+        <v>-4.701445142176558</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.24144832504023</v>
       </c>
       <c r="E39" t="n">
-        <v>-27.85627300907588</v>
+        <v>-28.01824336207333</v>
       </c>
       <c r="F39" t="n">
-        <v>6.695186762103471</v>
+        <v>7.147747460753187</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.359341775671052</v>
+        <v>-4.692380923445298</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.396620719538653</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.48217353712985</v>
+        <v>-27.6105197454001</v>
       </c>
       <c r="F40" t="n">
-        <v>6.782318642485628</v>
+        <v>7.135696058826241</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.172317706984088</v>
+        <v>-4.494244142149836</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.501349421766498</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.26684211868345</v>
+        <v>-27.43992273978597</v>
       </c>
       <c r="F41" t="n">
-        <v>6.626339767403574</v>
+        <v>6.95720819612891</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.505259074620995</v>
+        <v>-4.729864939093935</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.557097982770709</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.65037990932384</v>
+        <v>-26.86309326459301</v>
       </c>
       <c r="F42" t="n">
-        <v>6.516962905776952</v>
+        <v>6.838503109400215</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.296234475032914</v>
+        <v>-4.525484896029423</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.568176460488829</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.23139446533266</v>
+        <v>-26.46669014332011</v>
       </c>
       <c r="F43" t="n">
-        <v>6.463584728803975</v>
+        <v>6.854094152298807</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.282447475668214</v>
+        <v>-4.506750221715405</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.539858582662667</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.52541209573641</v>
+        <v>-25.8186205045659</v>
       </c>
       <c r="F44" t="n">
-        <v>6.572785586183388</v>
+        <v>6.899082793488159</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.389673174273392</v>
+        <v>-4.541931515129725</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.483486529139015</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.0363500718183</v>
+        <v>-25.34621532704337</v>
       </c>
       <c r="F45" t="n">
-        <v>6.579977315284619</v>
+        <v>6.863031256851527</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.456769904514933</v>
+        <v>-4.513726834514492</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.409480918395661</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.53235702092864</v>
+        <v>-24.79936524195834</v>
       </c>
       <c r="F46" t="n">
-        <v>6.481331823730876</v>
+        <v>6.774858018006716</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.431816413466199</v>
+        <v>-4.477308622362843</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.326941555534231</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.46640431829396</v>
+        <v>-24.69598719175742</v>
       </c>
       <c r="F47" t="n">
-        <v>6.653688871817097</v>
+        <v>6.950422254597632</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.530662354301485</v>
+        <v>-4.560524408244602</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.246807379823099</v>
       </c>
       <c r="E48" t="n">
-        <v>-23.96541800662745</v>
+        <v>-24.29695134028669</v>
       </c>
       <c r="F48" t="n">
-        <v>6.605053031505026</v>
+        <v>6.876099572206791</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.602921875794489</v>
+        <v>-4.654016886560616</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.180331460746689</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.22495836060572</v>
+        <v>-23.57662462454291</v>
       </c>
       <c r="F49" t="n">
-        <v>6.764190205023108</v>
+        <v>7.046911694123065</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.747597367000235</v>
+        <v>-4.78863569064112</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.136595125976678</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.04159615806207</v>
+        <v>-23.32697237789076</v>
       </c>
       <c r="F50" t="n">
-        <v>6.621489872591594</v>
+        <v>6.933462289776304</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.888513211925325</v>
+        <v>-4.972780134283472</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.122310658915467</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.57169904106227</v>
+        <v>-22.86838842278101</v>
       </c>
       <c r="F51" t="n">
-        <v>6.673963583294192</v>
+        <v>6.943792761286096</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.660147701171728</v>
+        <v>-4.738533148268975</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.141020196418555</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.98437286812605</v>
+        <v>-22.25735545554711</v>
       </c>
       <c r="F52" t="n">
-        <v>6.586460138390149</v>
+        <v>6.872198144726993</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.839456917022701</v>
+        <v>-4.916942786856436</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.197856994576979</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.5515002001294</v>
+        <v>-21.83514082252034</v>
       </c>
       <c r="F53" t="n">
-        <v>6.942682956727306</v>
+        <v>7.211861896805909</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.865021533929799</v>
+        <v>-4.931873813827994</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.292919721447038</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.92880206251104</v>
+        <v>-21.19963348691066</v>
       </c>
       <c r="F54" t="n">
-        <v>7.005311134692486</v>
+        <v>7.204895062020555</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.838244443319706</v>
+        <v>-4.830221583051098</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.42024587814816</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.64262893456304</v>
+        <v>-20.95932413238119</v>
       </c>
       <c r="F55" t="n">
-        <v>6.922369133195274</v>
+        <v>7.128827004178225</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.1984958033152</v>
+        <v>-5.169279098278517</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.576698786345426</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.09458104279561</v>
+        <v>-20.42203205572097</v>
       </c>
       <c r="F56" t="n">
-        <v>6.807511694870842</v>
+        <v>7.025370729867438</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.29392921735738</v>
+        <v>-5.357535196695943</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.756123914831165</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.78887144340742</v>
+        <v>-19.99561776579552</v>
       </c>
       <c r="F57" t="n">
-        <v>6.835584372300667</v>
+        <v>7.070334926022455</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.487343218019403</v>
+        <v>-5.504361850923133</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.950529320072729</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.44902190906756</v>
+        <v>-19.72055735045602</v>
       </c>
       <c r="F58" t="n">
-        <v>6.527063593963999</v>
+        <v>6.791969542040919</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.862295821663711</v>
+        <v>-5.882291859749393</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.15034220232169</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.88489896272171</v>
+        <v>-19.17303747143021</v>
       </c>
       <c r="F59" t="n">
-        <v>6.697098363788434</v>
+        <v>6.989167634017933</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.724895172675933</v>
+        <v>-5.871140035085959</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.346553644563976</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.30686679183949</v>
+        <v>-18.65989219968569</v>
       </c>
       <c r="F60" t="n">
-        <v>6.537736295954474</v>
+        <v>6.828016189670683</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.076033423871499</v>
+        <v>-6.232887431182731</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.532251544069528</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.06313024349631</v>
+        <v>-18.43805840210629</v>
       </c>
       <c r="F61" t="n">
-        <v>6.261067397355758</v>
+        <v>6.620746743547823</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.124786600348374</v>
+        <v>-6.280305908784939</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.699124656783413</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.80554802770603</v>
+        <v>-18.19214624570733</v>
       </c>
       <c r="F62" t="n">
-        <v>6.31212329606695</v>
+        <v>6.601532946560847</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.18344490473762</v>
+        <v>-6.349470688931184</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.837221310555625</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.24022727467779</v>
+        <v>-17.53637397663429</v>
       </c>
       <c r="F63" t="n">
-        <v>6.199461021825762</v>
+        <v>6.590346898849346</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.083601606501483</v>
+        <v>-6.270713677312052</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.944680474780363</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.26763993618058</v>
+        <v>-17.56940410702718</v>
       </c>
       <c r="F64" t="n">
-        <v>6.047378685216639</v>
+        <v>6.380408054977152</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.372165458807403</v>
+        <v>-6.606593338075975</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.019069970957274</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.88747565121614</v>
+        <v>-17.2030170434137</v>
       </c>
       <c r="F65" t="n">
-        <v>6.119330199277027</v>
+        <v>6.478510866768667</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.249500276516508</v>
+        <v>-6.473509682151684</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.060464043795371</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.81930822847075</v>
+        <v>-17.03595478976435</v>
       </c>
       <c r="F66" t="n">
-        <v>6.131376712197104</v>
+        <v>6.489032009546268</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.359326926774886</v>
+        <v>-6.534988943503139</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.069434860191043</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.64339687239228</v>
+        <v>-16.88184840431232</v>
       </c>
       <c r="F67" t="n">
-        <v>5.833782864207992</v>
+        <v>6.153533691317963</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.331748039038618</v>
+        <v>-6.537599673170072</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.051186332629202</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.41569137756572</v>
+        <v>-16.54092328846174</v>
       </c>
       <c r="F68" t="n">
-        <v>5.744695381079068</v>
+        <v>6.135395475841709</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.432046014913378</v>
+        <v>-6.668639724223993</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.012417259235379</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.39251259600967</v>
+        <v>-16.53258264274679</v>
       </c>
       <c r="F69" t="n">
-        <v>5.860799516154564</v>
+        <v>6.214514273968994</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.082379354784754</v>
+        <v>-6.394962897827829</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.958493992425693</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.13764377903053</v>
+        <v>-16.1947620462567</v>
       </c>
       <c r="F70" t="n">
-        <v>5.817321578087089</v>
+        <v>6.173500395362444</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.972924269048262</v>
+        <v>-6.242039652037596</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.894399474567519</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.22745483517576</v>
+        <v>-16.37043384099869</v>
       </c>
       <c r="F71" t="n">
-        <v>5.606776497363397</v>
+        <v>5.962945536625018</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.722401779173806</v>
+        <v>-5.98069290095979</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.829311779422955</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.1947913802979</v>
+        <v>-16.34770973708126</v>
       </c>
       <c r="F72" t="n">
-        <v>5.596768700306822</v>
+        <v>5.984598948038584</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.740060871977104</v>
+        <v>-5.953739806102488</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.76987737393635</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.11092046749597</v>
+        <v>-16.1764673825607</v>
       </c>
       <c r="F73" t="n">
-        <v>5.628488576859366</v>
+        <v>5.962300187718585</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.754556777337506</v>
+        <v>-6.063023776598638</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.721389429425805</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.26255790448021</v>
+        <v>-16.30807944741805</v>
       </c>
       <c r="F74" t="n">
-        <v>5.518769484752061</v>
+        <v>5.830927684197714</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.375008507238298</v>
+        <v>-5.649932030385526</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.684929916046398</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.4994645102303</v>
+        <v>-16.48717354696688</v>
       </c>
       <c r="F75" t="n">
-        <v>5.431935833788785</v>
+        <v>5.75885883397252</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.385158085494013</v>
+        <v>-5.644329228516042</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.66485146606958</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.57797218249922</v>
+        <v>-16.57517567057135</v>
       </c>
       <c r="F76" t="n">
-        <v>5.330684501574976</v>
+        <v>5.637968361174314</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.198285576019924</v>
+        <v>-5.482151092726739</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.660747294212609</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.74213036606963</v>
+        <v>-16.74056099486535</v>
       </c>
       <c r="F77" t="n">
-        <v>5.336409528616134</v>
+        <v>5.635494523699656</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.926691466549064</v>
+        <v>-5.248324561302797</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.667546475515623</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.11239930113543</v>
+        <v>-17.07781446655888</v>
       </c>
       <c r="F78" t="n">
-        <v>5.13943144194813</v>
+        <v>5.406263658730614</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.442420669360538</v>
+        <v>-4.899401030217945</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.680033008503797</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.28636972148773</v>
+        <v>-17.30688888330818</v>
       </c>
       <c r="F79" t="n">
-        <v>5.27069638731793</v>
+        <v>5.539792214279795</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.178771196048415</v>
+        <v>-4.592464290106157</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.693796466372511</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.68239883373531</v>
+        <v>-17.7032064469609</v>
       </c>
       <c r="F80" t="n">
-        <v>5.088351098202603</v>
+        <v>5.355804218857185</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.805955088404949</v>
+        <v>-4.284637750744592</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.70298530876777</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.53991108216472</v>
+        <v>-18.43785795282474</v>
       </c>
       <c r="F81" t="n">
-        <v>5.036112059829616</v>
+        <v>5.336473085705403</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.52589810804746</v>
+        <v>-4.052273032373858</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.701569568697412</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.23876527974902</v>
+        <v>-19.14434877913515</v>
       </c>
       <c r="F82" t="n">
-        <v>4.896809587170609</v>
+        <v>5.142247509903473</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.352621926670261</v>
+        <v>-3.802943460174929</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.682674070779811</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.85773310512792</v>
+        <v>-19.78835320867953</v>
       </c>
       <c r="F83" t="n">
-        <v>4.665114662740643</v>
+        <v>4.886068439083997</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.225649529329612</v>
+        <v>-3.678532902432545</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.646300766500474</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.04320482319685</v>
+        <v>-20.92827893877628</v>
       </c>
       <c r="F84" t="n">
-        <v>4.428921851993114</v>
+        <v>4.641471425532242</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.747641549937604</v>
+        <v>-3.24948832681269</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.590305876020089</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.86230903367978</v>
+        <v>-21.77113394461869</v>
       </c>
       <c r="F85" t="n">
-        <v>4.561213488804966</v>
+        <v>4.835276546743617</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.744644588728185</v>
+        <v>-3.222378783735646</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.511726503723873</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.74428098346437</v>
+        <v>-22.60297401798993</v>
       </c>
       <c r="F86" t="n">
-        <v>4.222439535975829</v>
+        <v>4.499920009714454</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.48480365176539</v>
+        <v>-2.95352251811026</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.412587004282406</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.4931497212972</v>
+        <v>-23.35416992309141</v>
       </c>
       <c r="F87" t="n">
-        <v>4.075128870068815</v>
+        <v>4.336695626455631</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.447520085398296</v>
+        <v>-2.872663233538353</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.296055716872777</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.74932625667546</v>
+        <v>-24.63542217469008</v>
       </c>
       <c r="F88" t="n">
-        <v>4.148224411736059</v>
+        <v>4.305880216173466</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.366963919252139</v>
+        <v>-2.821871341197974</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.165943874400114</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.07596804802657</v>
+        <v>-25.87679479727532</v>
       </c>
       <c r="F89" t="n">
-        <v>3.636888072532292</v>
+        <v>3.743463533224171</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.287576225747173</v>
+        <v>-2.754085260988198</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.025894075442221</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.40079601783005</v>
+        <v>-27.28566235061763</v>
       </c>
       <c r="F90" t="n">
-        <v>3.723975951852648</v>
+        <v>3.83304969505352</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.329592350761441</v>
+        <v>-2.752222549371903</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.880684251887502</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.08982810968092</v>
+        <v>-28.96740982223681</v>
       </c>
       <c r="F91" t="n">
-        <v>3.342012512361184</v>
+        <v>3.4598131328195</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.541692135668812</v>
+        <v>-2.96345698006383</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.738378715658019</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.76615367268468</v>
+        <v>-30.67484413593475</v>
       </c>
       <c r="F92" t="n">
-        <v>3.066663645616534</v>
+        <v>3.220799365109762</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.744830370989128</v>
+        <v>-3.135334905477092</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.604239284857132</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.34546911693169</v>
+        <v>-32.22109033773394</v>
       </c>
       <c r="F93" t="n">
-        <v>2.777205105053968</v>
+        <v>2.874242113348496</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.149351688164538</v>
+        <v>-3.508967477267333</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.479580713387048</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.33226128300515</v>
+        <v>-34.20062232861003</v>
       </c>
       <c r="F94" t="n">
-        <v>2.219731208047124</v>
+        <v>2.374350939220176</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.017236055599895</v>
+        <v>-3.404254728191749</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.369947551893241</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.54078702201724</v>
+        <v>-36.37459256708677</v>
       </c>
       <c r="F95" t="n">
-        <v>1.794260496446983</v>
+        <v>1.866901360475606</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.148481444942227</v>
+        <v>-3.568950702517513</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.278380634864333</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.34620925584533</v>
+        <v>-38.20313246988506</v>
       </c>
       <c r="F96" t="n">
-        <v>1.560130846597294</v>
+        <v>1.608204451119668</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.441890303053261</v>
+        <v>-3.900220029805936</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.206286358165731</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.43289849923046</v>
+        <v>-40.32064201255923</v>
       </c>
       <c r="F97" t="n">
-        <v>1.079404579387281</v>
+        <v>1.151331648413333</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.725056691778107</v>
+        <v>-4.163048149964417</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.154592941526945</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.19666150554557</v>
+        <v>-42.11905341054016</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6752988277955586</v>
+        <v>0.7730691871201237</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.04497863412842</v>
+        <v>-4.498605136275124</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.123514908832141</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.69852276756569</v>
+        <v>-44.63723173297861</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4162401319314694</v>
+        <v>0.4433838980565811</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.208775031190672</v>
+        <v>-4.685614537941488</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.117524699055203</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.26521348289282</v>
+        <v>-47.17348715830747</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3635173512865296</v>
+        <v>-0.3143094971710306</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.54919657933396</v>
+        <v>-5.007467638004233</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.13185108764994</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.07164040763205</v>
+        <v>-49.05786440853281</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.402981414716267</v>
+        <v>-0.3137765954225369</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.945739037302564</v>
+        <v>-5.423507455358094</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.171105158661737</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.30017440724699</v>
+        <v>-51.28277687631108</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.8151784726727332</v>
+        <v>-0.7647581448542393</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.198608250473139</v>
+        <v>-5.761298717806982</v>
       </c>
     </row>
   </sheetData>
